--- a/DateBase/orders/Dang Nguyen_2025-9-10.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-9-10.xlsx
@@ -775,6 +775,9 @@
       <c r="C41" t="str">
         <v>454_蓝星花_tweedia blue_undefined_1bunch</v>
       </c>
+      <c r="F41" t="str">
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -836,7 +839,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>01910103175155101010612151020551010515455551010101015201515101510150</v>
+        <v>019101031751551010106121510205510105154555510101010152015151015101510</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-9-10.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-9-10.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L41"/>
+  <dimension ref="A1:L93"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -779,9 +779,463 @@
         <v>10</v>
       </c>
     </row>
+    <row r="42">
+      <c r="A42" t="str">
+        <v>6</v>
+      </c>
+      <c r="C42" t="str">
+        <v>144_高原红_High Plateau Red_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F42" t="str">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="C43" t="str">
+        <v>229_黄蝴蝶_Yellow Butterfly_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F43" t="str">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="C44" t="str">
+        <v>238_苏菲宝贝_undefined_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F44" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="C45" t="str">
+        <v>1_白洋桔梗_White Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F45" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="C46" t="str">
+        <v>5_绿洋桔梗_Light Green Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F46" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="str">
+        <v>7</v>
+      </c>
+      <c r="C47" t="str">
+        <v>2_粉洋桔梗_Pink Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F47" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="C48" t="str">
+        <v>3_波浪白洋桔梗_Wavy White Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F48" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="C49" t="str">
+        <v>14_波浪浅紫洋桔梗_Wavy Light Purple Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F49" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="C50" t="str">
+        <v>9_茶色洋桔梗_Tea Color Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F50" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="C51" t="str">
+        <v>13_酒红洋桔梗_Burgundy Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F51" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="C52" t="str">
+        <v>8_冰淇淋洋桔梗_Icecream Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F52" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="C53" t="str">
+        <v>12_肉粉洋桔梗_Peach Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F53" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54" xml:space="preserve">
+      <c r="C54" t="str" xml:space="preserve">
+        <v xml:space="preserve">542_吊米 红_hanging amaranthus
+red_undefined_1bunch</v>
+      </c>
+      <c r="F54" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" xml:space="preserve">
+      <c r="C55" t="str" xml:space="preserve">
+        <v xml:space="preserve">448_吊米 绿_hanging amaranthus
+green_undefined_1bunch</v>
+      </c>
+      <c r="F55" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" xml:space="preserve">
+      <c r="C56" t="str" xml:space="preserve">
+        <v xml:space="preserve">497_小飞燕粉色_delphinium ballkleid
+pink_undefined_1bunch</v>
+      </c>
+      <c r="F56" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57" xml:space="preserve">
+      <c r="C57" t="str" xml:space="preserve">
+        <v xml:space="preserve">405_小飞燕浅蓝_ delphinium ballkleid
+dark blue_undefined_1bunch</v>
+      </c>
+      <c r="F57" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58" xml:space="preserve">
+      <c r="C58" t="str" xml:space="preserve">
+        <v xml:space="preserve">404_小飞燕白色_ delphinium ballkleid
+white_undefined_1bunch</v>
+      </c>
+      <c r="F58" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="str">
+        <v>8</v>
+      </c>
+      <c r="C59" t="str">
+        <v>664_大丽花 琳达宝贝_undefined_undefined_5stems</v>
+      </c>
+      <c r="F59" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="C60" t="str">
+        <v>653_大丽花 黑_undefined_undefined_5stems</v>
+      </c>
+      <c r="F60" t="str">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="C61" t="str">
+        <v>669_大丽花 红_undefined_undefined_5stems</v>
+      </c>
+      <c r="F61" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="C62" t="str">
+        <v>657_大丽花 x元素_undefined_undefined_5stems</v>
+      </c>
+      <c r="F62" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="str">
+        <v>9</v>
+      </c>
+      <c r="C63" t="str">
+        <v>651_大丽花 奶油桃子_undefined_undefined_5stems</v>
+      </c>
+      <c r="F63" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="C64" t="str">
+        <v>653_大丽花 黑_undefined_undefined_5stems</v>
+      </c>
+      <c r="F64" t="str">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65" xml:space="preserve">
+      <c r="C65" t="str" xml:space="preserve">
+        <v xml:space="preserve">386_菟葵绿粉 
+green_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F65" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66" xml:space="preserve">
+      <c r="C66" t="str" xml:space="preserve">
+        <v xml:space="preserve">386_菟葵绿粉 
+green_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F66" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="C67" t="str">
+        <v>458_蓝盆花白色_Scabiosa caucasica white_undefined_1bunch</v>
+      </c>
+      <c r="F67" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="C68" t="str">
+        <v>552_蓝盆花紫色_Scabiosa caucasica purple_undefined_1bunch</v>
+      </c>
+      <c r="F68" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="C69" t="str">
+        <v>552_蓝盆花紫色_Scabiosa caucasica purple_undefined_1bunch</v>
+      </c>
+      <c r="F69" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70" xml:space="preserve">
+      <c r="C70" t="str" xml:space="preserve">
+        <v xml:space="preserve">404_小飞燕白色_ delphinium ballkleid
+white_undefined_1bunch</v>
+      </c>
+      <c r="F70" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="str">
+        <v>10</v>
+      </c>
+      <c r="C71" t="str">
+        <v>707_永生吊米白_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F71" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="C72" t="str">
+        <v>721_银扇干花_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F72" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="C73" t="str">
+        <v>504_大花葱_Allium _undefined_1bunch</v>
+      </c>
+      <c r="F73" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="str">
+        <v>11</v>
+      </c>
+      <c r="C74" t="str">
+        <v>594_绿毛球_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F74" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="str">
+        <v>1</v>
+      </c>
+      <c r="C75" t="str">
+        <v>144_高原红_High Plateau Red_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F75" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="C76" t="str">
+        <v>181_月光女神_undefined_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F76" t="str">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="C77" t="str">
+        <v>189_洛神_Mandala_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F77" t="str">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="C78" t="str">
+        <v>147_娜欧米_Red Naomi_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F78" t="str">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="C79" t="str">
+        <v>411_紫罗兰白_violet white_undefined_1bunch</v>
+      </c>
+      <c r="F79" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="C80" t="str">
+        <v>412_紫罗兰粉_violet pink_undefined_1bunch</v>
+      </c>
+      <c r="F80" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="C81" t="str">
+        <v>506_紫罗兰香槟色_violet champagne_undefined_1bunch</v>
+      </c>
+      <c r="F81" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="str">
+        <v>2</v>
+      </c>
+      <c r="C82" t="str">
+        <v>699_火焰兰果_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F82" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="C83" t="str">
+        <v>203_佛罗伊德_Floyd_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F83" t="str">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="C84" t="str">
+        <v>217_琉璃翠_Dynamic_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F84" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="C85" t="str">
+        <v>147_娜欧米_Red Naomi_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F85" t="str">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="C86" t="str">
+        <v>411_紫罗兰白_violet white_undefined_1bunch</v>
+      </c>
+      <c r="F86" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="str">
+        <v>3</v>
+      </c>
+      <c r="C87" t="str">
+        <v>238_苏菲宝贝_undefined_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F87" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="C88" t="str">
+        <v>234_白泡泡_White Bubbles_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F88" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="C89" t="str">
+        <v>221_朱丽叶塔_Julieta_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F89" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="str">
+        <v>4</v>
+      </c>
+      <c r="C90" t="str">
+        <v>656_大丽花 梅根_undefined_undefined_5stems</v>
+      </c>
+      <c r="F90" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="C91" t="str">
+        <v>653_大丽花 黑_undefined_undefined_5stems</v>
+      </c>
+      <c r="F91" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="C92" t="str">
+        <v>652_大丽花 红桃子_undefined_undefined_5stems</v>
+      </c>
+      <c r="F92" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="C93" t="str">
+        <v>505_紫罗兰紫_violet purple_undefined_1bunch</v>
+      </c>
+      <c r="F93" t="str">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L41"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L93"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -839,7 +1293,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>019101031751551010106121510205510105154555510101010152015151015101510</v>
+        <v>01910103175155101010612151020551010515455551010101015201515101510151017610105510105510105510105107101010351010510510102020108.598.55551512109510101010551010</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-9-10.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-9-10.xlsx
@@ -1295,6 +1295,9 @@
       <c r="G2" t="str">
         <v>01910103175155101010612151020551010515455551010101015201515101510151017610105510105510105510105107101010351010510510102020108.598.55551512109510101010551010</v>
       </c>
+      <c r="H2" t="str">
+        <v>CNY</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
